--- a/QRPH/CCG/StructureDefinition-ccg-card-collect-ad.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-card-collect-ad.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2925,7 +2925,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>210</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>329</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>334</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>342</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>348</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>358</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>364</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>369</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>373</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>379</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>387</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>463</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>470</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>474</v>
       </c>
@@ -9533,12 +9533,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN67">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
